--- a/schedule_estimated (22).xlsx
+++ b/schedule_estimated (22).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlawl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5660EC00-3DAA-4CA1-AF7D-81839874C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6C659-A779-4DA6-AC47-BE42B289BB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -31,9 +31,45 @@
     <t>interview_date</t>
   </si>
   <si>
+    <t>loc_면접4_v2</t>
+  </si>
+  <si>
+    <t>start_면접4_v2</t>
+  </si>
+  <si>
+    <t>end_면접4_v2</t>
+  </si>
+  <si>
     <t>wave</t>
   </si>
   <si>
+    <t>loc_커피챗_v2</t>
+  </si>
+  <si>
+    <t>start_커피챗_v2</t>
+  </si>
+  <si>
+    <t>end_커피챗_v2</t>
+  </si>
+  <si>
+    <t>loc_면접2</t>
+  </si>
+  <si>
+    <t>start_면접2</t>
+  </si>
+  <si>
+    <t>end_면접2</t>
+  </si>
+  <si>
+    <t>loc_인성검사_v2</t>
+  </si>
+  <si>
+    <t>start_인성검사_v2</t>
+  </si>
+  <si>
+    <t>end_인성검사_v2</t>
+  </si>
+  <si>
     <t>loc_면접4</t>
   </si>
   <si>
@@ -43,13 +79,22 @@
     <t>end_면접4</t>
   </si>
   <si>
-    <t>loc_면접2</t>
-  </si>
-  <si>
-    <t>start_면접2</t>
-  </si>
-  <si>
-    <t>end_면접2</t>
+    <t>loc_면접3_v2</t>
+  </si>
+  <si>
+    <t>start_면접3_v2</t>
+  </si>
+  <si>
+    <t>end_면접3_v2</t>
+  </si>
+  <si>
+    <t>loc_커피챗</t>
+  </si>
+  <si>
+    <t>start_커피챗</t>
+  </si>
+  <si>
+    <t>end_커피챗</t>
   </si>
   <si>
     <t>loc_인성검사</t>
@@ -70,15 +115,6 @@
     <t>end_면접3</t>
   </si>
   <si>
-    <t>loc_커피챗</t>
-  </si>
-  <si>
-    <t>start_커피챗</t>
-  </si>
-  <si>
-    <t>end_커피챗</t>
-  </si>
-  <si>
     <t>loc_면접1</t>
   </si>
   <si>
@@ -97,20 +133,31 @@
     <t>면접4실</t>
   </si>
   <si>
+    <t>면접2실</t>
+  </si>
+  <si>
+    <t>커피챗실</t>
+  </si>
+  <si>
     <t>인성검사실</t>
   </si>
   <si>
     <t>면접3실</t>
   </si>
   <si>
-    <t>커피챗실</t>
-  </si>
-  <si>
     <t>면접1실</t>
   </si>
   <si>
-    <t>면접2실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>JOB01_002</t>
+  </si>
+  <si>
+    <t>JOB01_003</t>
+  </si>
+  <si>
+    <t>JOB01_004</t>
+  </si>
+  <si>
+    <t>JOB01_005</t>
   </si>
 </sst>
 </file>
@@ -480,15 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="A1:V2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +548,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -507,43 +557,43 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -555,40 +605,70 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4">
         <v>45818</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45818.371527777781</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5">
-        <v>45818.371527777781</v>
-      </c>
-      <c r="G2" s="5">
-        <v>45818.378472222219</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45818.378472222219</v>
-      </c>
-      <c r="J2" s="5">
-        <v>45818.385416666657</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L2" s="5">
         <v>45818.385416666657</v>
@@ -596,31 +676,369 @@
       <c r="M2" s="5">
         <v>45818.392361111109</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="5">
+      <c r="N2" s="1"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="5">
+        <v>45818.399305555547</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>45818.40625</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>45818.385416666657</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>45818.40625</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>45818.413194444453</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="5">
         <v>45818.392361111109</v>
       </c>
-      <c r="P2" s="5">
+      <c r="AH2" s="5">
         <v>45818.399305555547</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="5">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45818</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45818.371527777781</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="S3" s="5">
+        <v>45818.385416666657</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="5">
+        <v>45818.385416666657</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>45818.392361111109</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>45818.392361111109</v>
+      </c>
+      <c r="AB3" s="5">
         <v>45818.399305555547</v>
       </c>
-      <c r="S2" s="5">
+      <c r="AC3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>45818.399305555547</v>
+      </c>
+      <c r="AE3" s="5">
         <v>45818.40625</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="5">
+      <c r="AF3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>45818.413194444453</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>45818.420138888891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45818</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45818.392361111109</v>
+      </c>
+      <c r="M4" s="5">
+        <v>45818.399305555547</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="5">
+        <v>45818.399305555547</v>
+      </c>
+      <c r="S4" s="5">
         <v>45818.40625</v>
       </c>
-      <c r="V2" s="5">
+      <c r="T4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="5">
+        <v>45818.371527777781</v>
+      </c>
+      <c r="V4" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>45818.385416666657</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>45818.40625</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>45818.413194444453</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>45818.385416666657</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>45818.392361111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45818</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45818.40625</v>
+      </c>
+      <c r="M5" s="5">
+        <v>45818.413194444453</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="5">
+        <v>45818.371527777781</v>
+      </c>
+      <c r="P5" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="5">
+        <v>45818.392361111109</v>
+      </c>
+      <c r="S5" s="5">
+        <v>45818.399305555547</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="5">
+        <v>45818.413194444453</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>45818.420138888891</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>45818.385416666657</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>45818.399305555547</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>45818.40625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45818</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45818.371527777781</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="5">
+        <v>45818.378472222219</v>
+      </c>
+      <c r="M6" s="5">
+        <v>45818.385416666657</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="5">
+        <v>45818.385416666657</v>
+      </c>
+      <c r="S6" s="5">
+        <v>45818.392361111109</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>45818.399305555547</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>45818.40625</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>45818.392361111109</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>45818.399305555547</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>45818.40625</v>
+      </c>
+      <c r="AH6" s="5">
         <v>45818.413194444453</v>
       </c>
     </row>
